--- a/data/trans_bre/P26_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>103,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>120,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>148,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>119,27%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 9,01</t>
+          <t>0,17; 3,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,42</t>
+          <t>1,16; 5,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,2</t>
+          <t>2,92; 7,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 12,47</t>
+          <t>-1,16; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 14,58</t>
+          <t>-12,05; 5,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 237,13</t>
+          <t>4,01; 10,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 205,48</t>
+          <t>-0,02; 5,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 185,82</t>
+          <t>5,26; 347,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 82,61</t>
+          <t>28,54; 306,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,77; 152,78</t>
+          <t>48,79; 279,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 87,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-64,07; 120,28</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>54,74; 213,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 99,46</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>220,31%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>120,15%</t>
+          <t>258,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>57,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>211,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>152,02%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>139,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,74%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 7,65</t>
+          <t>-2,95; 2,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 14,4</t>
+          <t>2,54; 7,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 8,42</t>
+          <t>-1,09; 5,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 16,22</t>
+          <t>4,37; 9,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 13,73</t>
+          <t>3,36; 10,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 178,04</t>
+          <t>0,62; 9,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,21; 608,4</t>
+          <t>-2,53; 6,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,17; 98,08</t>
+          <t>-63,02; 250,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 299,77</t>
+          <t>81,17; 714,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 313,42</t>
+          <t>-20,1; 166,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89,96; 479,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54,13; 353,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 528,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-33,16; 148,94</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>9,23</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>186,99%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>163,53%</t>
+          <t>186,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>295,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>408,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 16,29</t>
+          <t>-0,98; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 7,69</t>
+          <t>-4,19; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 16,53</t>
+          <t>2,06; 11,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 13,48</t>
+          <t>-2,18; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>3,2; 17,38</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-57,28; —</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 221,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 1026,15</t>
+          <t>-72,77; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 227,97</t>
+          <t>-76,42; 373,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 1421,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-31,35; 300,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 2237,09</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>101,81%</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>141,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>115,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>72,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>124,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,02</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,08</t>
+          <t>2,21; 5,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,27</t>
+          <t>2,52; 6,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 11,11</t>
+          <t>2,07; 6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,04</t>
+          <t>-0,63; 6,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 135,6</t>
+          <t>3,93; 9,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,64; 206,06</t>
+          <t>0,26; 5,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 113,38</t>
+          <t>-5,09; 191,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 94,25</t>
+          <t>62,58; 265,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 143,43</t>
+          <t>44,04; 193,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28,97; 129,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 178,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>57,7; 203,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 91,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P26_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>103,86%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>120,81%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>148,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>22,92%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>119,27%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>35,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.008350454774846</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.098672504021713</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.167120122363563</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2372322560026341</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.5331791451331586</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>9.080937271434912</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.456027331570864</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6378161459554761</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7912021142900871</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8368769314489288</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.01362853271567929</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.0346028467719563</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.7599602299760028</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.09447779674540052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 3,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 5,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 7,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 5,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 5,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 10,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 5,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 347,77</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>28,54; 306,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>48,79; 279,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 87,4</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-64,07; 120,28</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>54,74; 213,09</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 99,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.184377101186613</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4095416095637096</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.70695328689801</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.024840639958573</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-16.68804741937738</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>3.799650957893202</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-4.221880422628104</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1490505357340605</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.01524734998719255</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1050924854148074</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2923984134241798</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.5962459896123109</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.2587768462665625</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.2166200046014169</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.292454781434298</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.168994740483381</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.97116804399847</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.299458402525621</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.232710392951732</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>14.02636981080004</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>6.715259033254904</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.61756906642051</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.96955695329081</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.913567574157435</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5065079272687375</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.8177162398620991</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.541404787766274</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.5632781674678323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,56%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>258,13%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57,42%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>211,1%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>152,02%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>139,3%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>33,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 2,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 7,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 5,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 9,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 10,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 9,52</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 6,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-63,02; 250,84</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>81,17; 714,69</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-20,1; 166,99</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>89,96; 479,95</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>54,13; 353,66</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>7,66; 528,5</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-33,16; 148,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.7472383471497992</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.626479278910379</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.750698641633364</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.53132461094964</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.3037619309621</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>5.049745472159062</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.167264505999752</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.08031583207895406</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.211961151059379</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1367151696709908</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.30056568803142</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.159401466821349</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.5879814739329119</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.09191698140341441</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>186,45%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,4%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>295,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>66,34%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>408,27%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.93975369540175</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.603166464170808</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.543036863319614</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.17374530554371</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.099957335638782</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.728545956128638</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-6.587226047025033</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6459533904220672</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.6324358752685542</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4393504338647531</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2273906524483137</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.3199152694811377</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.3109685737661427</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.4056691762237345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 6,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 5,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 11,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 10,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 17,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,77; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-76,42; 373,45</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 1421,43</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-31,35; 300,33</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,18; 2237,09</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.428886981608898</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.59476627109988</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.640931187267237</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>15.87737588885958</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>16.38673687285386</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>13.6135221286868</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>9.601684365990668</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.608426840865085</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>5.891888852799775</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9156426803570092</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>2.830028659647921</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.686065160857022</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>2.949865876629655</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.136118643062817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,279 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>73,51%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>141,99%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>115,67%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>69,83%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>72,97%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>124,75%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>35,48%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.351719672734966</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.4189747863343682</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.929259113700985</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.673819748311625</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>12.96422328452553</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.868493508111355</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.05557966798090151</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.882706493148877</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3107527977592776</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>2.583468372123901</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 5,53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 6,12</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 6,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 6,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,93; 9,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 5,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 191,31</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>62,58; 265,29</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>44,04; 193,23</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>28,97; 129,21</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 178,05</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>57,7; 203,51</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 91,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.670290796054825</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.763316457838211</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.098146116194096</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.455043669033186</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>1.453365992090173</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.6307168790461134</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7494255708591063</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.05180960122378004</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.4139536194999463</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.1323561804560914</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.00673428220691</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.089629603540713</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.45087169549606</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.80441801541562</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>24.83805235443882</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>3.774781630282941</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>10.81081382463731</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>2.198682994893773</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>14.08764237436444</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.226631945183704</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.097069274623244</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.802051886973418</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.34222460193712</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.180525594699913</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>8.231681843426124</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.467437784943284</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4550823812276436</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.05457137220202</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5615986700808031</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.3307149704956181</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.4449399443436169</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.7296078124482882</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.09955133929670397</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.379228317269147</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.092195812874442</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2572052296148116</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2736183117555983</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.964288303936297</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.696207281076088</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-2.644535909451514</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2904414108069876</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4036178165584225</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.01298040330597013</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.01138359045845139</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2370156020264716</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.2597703943816258</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.1604067596816835</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.123161828600375</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.400717479187746</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.559573468442977</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.783020797210906</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.0079827262026</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>12.49927986560643</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>6.113441561313957</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.486045430238943</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.202299371340003</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.219951502802664</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7947755808900394</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.205157946936594</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.388960785337279</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5042218827317961</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1264,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
